--- a/Code/Data/Information Technology/DEC start/AAPL.xlsx
+++ b/Code/Data/Information Technology/DEC start/AAPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyining/Desktop/Thesis/Code/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyining/Desktop/Thesis/Code/Data/Information Technology/DEC start/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C85515A-6054-E64C-A8AC-4B7B5E2E7918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5D10D4-940A-BA4A-A8B0-F49D7A04C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="1080" windowWidth="23260" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4460" yWindow="1880" windowWidth="23260" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL-US" sheetId="2" r:id="rId1"/>
@@ -632,12 +632,11 @@
     <t>All figures in billions of U.S. Dollar except per share and labeled items.</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Price/Earnings</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Price/Earnings</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -1082,9 +1081,7 @@
   </sheetPr>
   <dimension ref="A1:CW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
@@ -1094,7 +1091,7 @@
   <sheetData>
     <row r="1" spans="1:101" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -5879,7 +5876,7 @@
     </row>
     <row r="18" spans="1:101" ht="15" customHeight="1" outlineLevel="1">
       <c r="A18" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">

--- a/Code/Data/Information Technology/DEC start/AAPL.xlsx
+++ b/Code/Data/Information Technology/DEC start/AAPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangyining/Desktop/Thesis/Code/Data/Information Technology/DEC start/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5D10D4-940A-BA4A-A8B0-F49D7A04C56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B3F5396-2BC7-8F4E-9A2E-99B1332E8F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="1880" windowWidth="23260" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4460" yWindow="820" windowWidth="23260" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AAPL-US" sheetId="2" r:id="rId1"/>
@@ -1081,7 +1081,9 @@
   </sheetPr>
   <dimension ref="A1:CW101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="210" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
